--- a/bitacora.xlsx
+++ b/bitacora.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="sprint" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t xml:space="preserve">id </t>
   </si>
@@ -94,13 +94,49 @@
   </si>
   <si>
     <t>u-101</t>
+  </si>
+  <si>
+    <t>tareas</t>
+  </si>
+  <si>
+    <t>asignado</t>
+  </si>
+  <si>
+    <t>complejidad (1-5)</t>
+  </si>
+  <si>
+    <t>i-101-1</t>
+  </si>
+  <si>
+    <t>i-102-2</t>
+  </si>
+  <si>
+    <t>i-103-3</t>
+  </si>
+  <si>
+    <t>pedro</t>
+  </si>
+  <si>
+    <t>carlos</t>
+  </si>
+  <si>
+    <t>ana</t>
+  </si>
+  <si>
+    <t>crear una seccion restringuida con clave</t>
+  </si>
+  <si>
+    <t>crear un formulario para nuevos usuarios</t>
+  </si>
+  <si>
+    <t>habilitar una base de datos para nuevos usuarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,8 +144,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +193,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,6 +235,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,13 +656,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
